--- a/fastqFiles/fastq_fullrun_hbrown_01.30.20.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_01.30.20.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C467FA-5AC9-9243-A756-4F6B77FD0945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33220" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,135 +27,116 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
   <si>
-    <t xml:space="preserve">libraryDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libraryPreparer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">librarySampleNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laneNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequencerModel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowcellType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tapestationConc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volumePooled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readsObtained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fastqFileName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.16.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H.BROWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NextSeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighOutput</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fullRNASeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_5d1_GTAC_27_SIC_Index2_07_TGTTTGT_GAGTTGGT_S28_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_5d2_GTAC_28_SIC_Index2_07_TACATGG_GAGTTGGT_S29_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_5d3_GTAC_29_SIC_Index2_07_GTTCTCA_GAGTTGGT_S30_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_5d4_GTAC_30_SIC_Index2_07_CTGGTGG_GAGTTGGT_S31_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_5d5_GTAC_31_SIC_Index2_07_TGCCCAT_GAGTTGGT_S32_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_5d6_GTAC_32_SIC_Index2_07_AAACCTT_GAGTTGGT_S33_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_5d7_GTAC_33_SIC_Index2_07_ACCATAC_GAGTTGGT_S34_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_5d8_GTAC_34_SIC_Index2_07_AATACGC_GAGTTGGT_S35_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_5d15_GTAC_41_SIC_Index2_07_TTGCCCC_GAGTTGGT_S36_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_5d17_GTAC_43_SIC_Index2_07_TGTGCCA_GAGTTGGT_S37_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_5d20_GTAC_46_SIC_Index2_07_GGTGAAT_GAGTTGGT_S38_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_JR110_GTAC_53_SIC_Index2_07_TAGGTAA_GAGTTGGT_S39_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_JR31_GTAC_54_SIC_Index2_07_TCGAGAT_GAGTTGGT_S40_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_JR32_GTAC_55_SIC_Index2_07_CATTTAG_GAGTTGGT_S41_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_JR39_GTAC_56_SIC_Index2_07_TCCGGGA_GAGTTGGT_S42_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_JR310_GTAC_57_SIC_Index2_07_CGAAAGT_GAGTTGGT_S43_R1_001.fastq.gz</t>
+    <t>libraryDate</t>
+  </si>
+  <si>
+    <t>libraryPreparer</t>
+  </si>
+  <si>
+    <t>librarySampleNumber</t>
+  </si>
+  <si>
+    <t>runNumber</t>
+  </si>
+  <si>
+    <t>laneNumber</t>
+  </si>
+  <si>
+    <t>sequencerModel</t>
+  </si>
+  <si>
+    <t>flowcellType</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>tapestationConc</t>
+  </si>
+  <si>
+    <t>volumePooled</t>
+  </si>
+  <si>
+    <t>readsObtained</t>
+  </si>
+  <si>
+    <t>fastqFileName</t>
+  </si>
+  <si>
+    <t>01.16.20</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>NextSeq</t>
+  </si>
+  <si>
+    <t>HighOutput</t>
+  </si>
+  <si>
+    <t>fullRNASeq</t>
+  </si>
+  <si>
+    <t>Brent_5d1_GTAC_27_SIC_Index2_07_TGTTTGT_GAGTTGGT_S28_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5d2_GTAC_28_SIC_Index2_07_TACATGG_GAGTTGGT_S29_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5d3_GTAC_29_SIC_Index2_07_GTTCTCA_GAGTTGGT_S30_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5d4_GTAC_30_SIC_Index2_07_CTGGTGG_GAGTTGGT_S31_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5d5_GTAC_31_SIC_Index2_07_TGCCCAT_GAGTTGGT_S32_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5d6_GTAC_32_SIC_Index2_07_AAACCTT_GAGTTGGT_S33_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5d7_GTAC_33_SIC_Index2_07_ACCATAC_GAGTTGGT_S34_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5d8_GTAC_34_SIC_Index2_07_AATACGC_GAGTTGGT_S35_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5d15_GTAC_41_SIC_Index2_07_TTGCCCC_GAGTTGGT_S36_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5d17_GTAC_43_SIC_Index2_07_TGTGCCA_GAGTTGGT_S37_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5d20_GTAC_46_SIC_Index2_07_GGTGAAT_GAGTTGGT_S38_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_JR110_GTAC_53_SIC_Index2_07_TAGGTAA_GAGTTGGT_S39_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_JR31_GTAC_54_SIC_Index2_07_TCGAGAT_GAGTTGGT_S40_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_JR32_GTAC_55_SIC_Index2_07_CATTTAG_GAGTTGGT_S41_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_JR39_GTAC_56_SIC_Index2_07_TCCGGGA_GAGTTGGT_S42_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_JR310_GTAC_57_SIC_Index2_07_CGAAAGT_GAGTTGGT_S43_R1_001.fastq.gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -196,7 +182,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -204,107 +190,355 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.61"/>
+    <col min="1" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="12" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -335,7 +569,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -356,17 +590,17 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="5">
         <v>4178</v>
       </c>
       <c r="E2" s="2"/>
@@ -379,13 +613,13 @@
       <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>20</v>
       </c>
-      <c r="J2" s="7" t="n">
-        <v>21.241304716661</v>
-      </c>
-      <c r="K2" s="8" t="n">
+      <c r="J2" s="7">
+        <v>21.241304716660999</v>
+      </c>
+      <c r="K2">
         <v>13150378</v>
       </c>
       <c r="L2" s="9" t="s">
@@ -406,17 +640,17 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>4178</v>
       </c>
       <c r="E3" s="2"/>
@@ -429,13 +663,13 @@
       <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>24.6</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>24.3564415184712</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3">
         <v>8359577</v>
       </c>
       <c r="L3" s="9" t="s">
@@ -444,17 +678,17 @@
       <c r="N3" s="9"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>4178</v>
       </c>
       <c r="E4" s="2"/>
@@ -467,13 +701,13 @@
       <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>0.5</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>0.675536951952884</v>
-      </c>
-      <c r="K4" s="8" t="n">
+      <c r="J4">
+        <v>0.67553695195288399</v>
+      </c>
+      <c r="K4">
         <v>23441414</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -482,17 +716,17 @@
       <c r="N4" s="9"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>4178</v>
       </c>
       <c r="E5" s="2"/>
@@ -505,13 +739,13 @@
       <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="I5">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="J5">
         <v>11.6614582848201</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5">
         <v>6056734</v>
       </c>
       <c r="L5" s="9" t="s">
@@ -520,17 +754,17 @@
       <c r="N5" s="9"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>4178</v>
       </c>
       <c r="E6" s="2"/>
@@ -543,13 +777,13 @@
       <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>0.921</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>6.91909883222893</v>
-      </c>
-      <c r="K6" s="8" t="n">
+      <c r="I6">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="J6">
+        <v>6.9190988322289302</v>
+      </c>
+      <c r="K6">
         <v>7895676</v>
       </c>
       <c r="L6" s="9" t="s">
@@ -558,17 +792,17 @@
       <c r="N6" s="9"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>4178</v>
       </c>
       <c r="E7" s="2"/>
@@ -581,13 +815,13 @@
       <c r="H7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>0.723</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>7.49242954690988</v>
-      </c>
-      <c r="K7" s="8" t="n">
+      <c r="I7">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="J7">
+        <v>7.4924295469098796</v>
+      </c>
+      <c r="K7">
         <v>8460131</v>
       </c>
       <c r="L7" s="9" t="s">
@@ -596,17 +830,17 @@
       <c r="N7" s="9"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>4178</v>
       </c>
       <c r="E8" s="2"/>
@@ -619,13 +853,13 @@
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>0.386</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>21.4811176692632</v>
-      </c>
-      <c r="K8" s="8" t="n">
+      <c r="I8">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="J8">
+        <v>21.481117669263199</v>
+      </c>
+      <c r="K8">
         <v>1897678</v>
       </c>
       <c r="L8" s="9" t="s">
@@ -634,17 +868,17 @@
       <c r="N8" s="9"/>
       <c r="O8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>4178</v>
       </c>
       <c r="E9" s="2"/>
@@ -657,13 +891,13 @@
       <c r="H9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>2.4</v>
       </c>
-      <c r="J9" s="0" t="n">
-        <v>2.77478878171599</v>
-      </c>
-      <c r="K9" s="8" t="n">
+      <c r="J9">
+        <v>2.7747887817159902</v>
+      </c>
+      <c r="K9">
         <v>9090073</v>
       </c>
       <c r="L9" s="9" t="s">
@@ -672,17 +906,17 @@
       <c r="N9" s="9"/>
       <c r="O9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5" t="n">
+      <c r="C10" s="4">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
         <v>4178</v>
       </c>
       <c r="E10" s="2"/>
@@ -695,13 +929,13 @@
       <c r="H10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10">
         <v>0.501</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10">
         <v>11.6296108793996</v>
       </c>
-      <c r="K10" s="8" t="n">
+      <c r="K10">
         <v>11115513</v>
       </c>
       <c r="L10" s="9" t="s">
@@ -710,17 +944,17 @@
       <c r="N10" s="9"/>
       <c r="O10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="4">
         <v>17</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="5">
         <v>4178</v>
       </c>
       <c r="E11" s="2"/>
@@ -733,13 +967,13 @@
       <c r="H11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>0.763</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>7.32488781235556</v>
-      </c>
-      <c r="K11" s="8" t="n">
+      <c r="I11">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="J11">
+        <v>7.3248878123555601</v>
+      </c>
+      <c r="K11">
         <v>11299576</v>
       </c>
       <c r="L11" s="9" t="s">
@@ -748,17 +982,17 @@
       <c r="N11" s="9"/>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>20</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="5">
         <v>4178</v>
       </c>
       <c r="E12" s="2"/>
@@ -771,13 +1005,13 @@
       <c r="H12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="J12" s="0" t="n">
+      <c r="I12">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="J12">
         <v>10</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12">
         <v>8156030</v>
       </c>
       <c r="L12" s="9" t="s">
@@ -786,17 +1020,17 @@
       <c r="N12" s="9"/>
       <c r="O12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="4">
         <v>27</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="5">
         <v>4178</v>
       </c>
       <c r="E13" s="2"/>
@@ -809,13 +1043,13 @@
       <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="J13" s="0" t="n">
+      <c r="I13">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="J13">
         <v>10</v>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K13">
         <v>390283</v>
       </c>
       <c r="L13" s="3" t="s">
@@ -824,17 +1058,17 @@
       <c r="N13" s="3"/>
       <c r="O13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>28</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>4178</v>
       </c>
       <c r="E14" s="2"/>
@@ -847,13 +1081,13 @@
       <c r="H14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="J14" s="0" t="n">
+      <c r="I14">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="J14">
         <v>10</v>
       </c>
-      <c r="K14" s="8" t="n">
+      <c r="K14">
         <v>3295872</v>
       </c>
       <c r="L14" s="3" t="s">
@@ -863,17 +1097,17 @@
       <c r="O14" s="8"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="4">
         <v>29</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="5">
         <v>4178</v>
       </c>
       <c r="E15" s="2"/>
@@ -886,13 +1120,13 @@
       <c r="H15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="J15" s="0" t="n">
+      <c r="I15">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="J15">
         <v>10</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15">
         <v>601878</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -901,17 +1135,17 @@
       <c r="N15" s="3"/>
       <c r="O15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>30</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="5">
         <v>4178</v>
       </c>
       <c r="E16" s="2"/>
@@ -924,13 +1158,13 @@
       <c r="H16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16">
         <v>0.184</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16">
         <v>10</v>
       </c>
-      <c r="K16" s="8" t="n">
+      <c r="K16">
         <v>494645</v>
       </c>
       <c r="L16" s="3" t="s">
@@ -940,17 +1174,17 @@
       <c r="O16" s="8"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="4">
         <v>31</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="5">
         <v>4178</v>
       </c>
       <c r="E17" s="2"/>
@@ -963,13 +1197,13 @@
       <c r="H17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="0" t="n">
-        <v>0.348</v>
-      </c>
-      <c r="J17" s="0" t="n">
+      <c r="I17">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="J17">
         <v>10</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17">
         <v>7357377</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -979,12 +1213,7 @@
       <c r="O17" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/fastqFiles/fastq_fullrun_hbrown_01.30.20.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_01.30.20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C467FA-5AC9-9243-A756-4F6B77FD0945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9544B33-09CF-AB49-B356-DC2BB8882031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33220" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="32">
   <si>
     <t>libraryDate</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>runNumber</t>
-  </si>
-  <si>
-    <t>laneNumber</t>
   </si>
   <si>
     <t>sequencerModel</t>
@@ -525,20 +522,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" customWidth="1"/>
-    <col min="12" max="1025" width="10.6640625" customWidth="1"/>
+    <col min="1" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="11" max="1024" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,21 +557,19 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -588,14 +583,13 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -603,31 +597,31 @@
       <c r="D2" s="5">
         <v>4178</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2" s="7">
+        <v>21.241304716660999</v>
+      </c>
+      <c r="J2">
+        <v>13150378</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2" s="7">
-        <v>21.241304716660999</v>
-      </c>
-      <c r="K2">
-        <v>13150378</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="8"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -638,14 +632,13 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -653,37 +646,36 @@
       <c r="D3" s="5">
         <v>4178</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>16</v>
+      <c r="H3">
+        <v>24.6</v>
       </c>
       <c r="I3">
-        <v>24.6</v>
+        <v>24.3564415184712</v>
       </c>
       <c r="J3">
-        <v>24.3564415184712</v>
-      </c>
-      <c r="K3">
         <v>8359577</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -691,37 +683,36 @@
       <c r="D4" s="5">
         <v>4178</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>16</v>
+      <c r="H4">
+        <v>0.5</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
+        <v>0.67553695195288399</v>
       </c>
       <c r="J4">
-        <v>0.67553695195288399</v>
-      </c>
-      <c r="K4">
         <v>23441414</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -729,37 +720,36 @@
       <c r="D5" s="5">
         <v>4178</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>16</v>
+      <c r="H5">
+        <v>0.34300000000000003</v>
       </c>
       <c r="I5">
-        <v>0.34300000000000003</v>
+        <v>11.6614582848201</v>
       </c>
       <c r="J5">
-        <v>11.6614582848201</v>
-      </c>
-      <c r="K5">
         <v>6056734</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -767,37 +757,36 @@
       <c r="D6" s="5">
         <v>4178</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>16</v>
+      <c r="H6">
+        <v>0.92100000000000004</v>
       </c>
       <c r="I6">
-        <v>0.92100000000000004</v>
+        <v>6.9190988322289302</v>
       </c>
       <c r="J6">
-        <v>6.9190988322289302</v>
-      </c>
-      <c r="K6">
         <v>7895676</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -805,37 +794,36 @@
       <c r="D7" s="5">
         <v>4178</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>16</v>
+      <c r="H7">
+        <v>0.72299999999999998</v>
       </c>
       <c r="I7">
-        <v>0.72299999999999998</v>
+        <v>7.4924295469098796</v>
       </c>
       <c r="J7">
-        <v>7.4924295469098796</v>
-      </c>
-      <c r="K7">
         <v>8460131</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -843,37 +831,36 @@
       <c r="D8" s="5">
         <v>4178</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>16</v>
+      <c r="H8">
+        <v>0.38600000000000001</v>
       </c>
       <c r="I8">
-        <v>0.38600000000000001</v>
+        <v>21.481117669263199</v>
       </c>
       <c r="J8">
-        <v>21.481117669263199</v>
-      </c>
-      <c r="K8">
         <v>1897678</v>
       </c>
-      <c r="L8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -881,75 +868,73 @@
       <c r="D9" s="5">
         <v>4178</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>16</v>
+      <c r="H9">
+        <v>2.4</v>
       </c>
       <c r="I9">
-        <v>2.4</v>
+        <v>2.7747887817159902</v>
       </c>
       <c r="J9">
-        <v>2.7747887817159902</v>
-      </c>
-      <c r="K9">
         <v>9090073</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>0.501</v>
+      </c>
+      <c r="I10">
+        <v>11.6296108793996</v>
+      </c>
+      <c r="J10">
+        <v>11115513</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5">
-        <v>4178</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10">
-        <v>0.501</v>
-      </c>
-      <c r="J10">
-        <v>11.6296108793996</v>
-      </c>
-      <c r="K10">
-        <v>11115513</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M10" s="9"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>17</v>
@@ -957,37 +942,36 @@
       <c r="D11" s="5">
         <v>4178</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>16</v>
+      <c r="H11">
+        <v>0.76300000000000001</v>
       </c>
       <c r="I11">
-        <v>0.76300000000000001</v>
+        <v>7.3248878123555601</v>
       </c>
       <c r="J11">
-        <v>7.3248878123555601</v>
-      </c>
-      <c r="K11">
         <v>11299576</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -995,37 +979,36 @@
       <c r="D12" s="5">
         <v>4178</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>16</v>
+      <c r="H12">
+        <v>0.60799999999999998</v>
       </c>
       <c r="I12">
-        <v>0.60799999999999998</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12">
         <v>8156030</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4">
         <v>27</v>
@@ -1033,37 +1016,36 @@
       <c r="D13" s="5">
         <v>4178</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>16</v>
+      <c r="H13">
+        <v>0.20499999999999999</v>
       </c>
       <c r="I13">
-        <v>0.20499999999999999</v>
+        <v>10</v>
       </c>
       <c r="J13">
-        <v>10</v>
-      </c>
-      <c r="K13">
         <v>390283</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>28</v>
@@ -1071,38 +1053,37 @@
       <c r="D14" s="5">
         <v>4178</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>16</v>
+      <c r="H14">
+        <v>0.45700000000000002</v>
       </c>
       <c r="I14">
-        <v>0.45700000000000002</v>
+        <v>10</v>
       </c>
       <c r="J14">
-        <v>10</v>
-      </c>
-      <c r="K14">
         <v>3295872</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4">
         <v>29</v>
@@ -1110,37 +1091,36 @@
       <c r="D15" s="5">
         <v>4178</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>16</v>
+      <c r="H15">
+        <v>0.20799999999999999</v>
       </c>
       <c r="I15">
-        <v>0.20799999999999999</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>10</v>
-      </c>
-      <c r="K15">
         <v>601878</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -1148,38 +1128,37 @@
       <c r="D16" s="5">
         <v>4178</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>16</v>
+      <c r="H16">
+        <v>0.184</v>
       </c>
       <c r="I16">
-        <v>0.184</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>10</v>
-      </c>
-      <c r="K16">
         <v>494645</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4">
         <v>31</v>
@@ -1187,30 +1166,29 @@
       <c r="D17" s="5">
         <v>4178</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>16</v>
+      <c r="H17">
+        <v>0.34799999999999998</v>
       </c>
       <c r="I17">
-        <v>0.34799999999999998</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>10</v>
-      </c>
-      <c r="K17">
         <v>7357377</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="8"/>
+      <c r="K17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/fastqFiles/fastq_fullrun_hbrown_01.30.20.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_01.30.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9544B33-09CF-AB49-B356-DC2BB8882031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB94B949-4790-3E4A-BEC7-C1D10DEA98DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33220" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33220" windowHeight="13920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>fastqFileName</t>
   </si>
   <si>
-    <t>01.16.20</t>
-  </si>
-  <si>
     <t>H.BROWN</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Brent_JR310_GTAC_57_SIC_Index2_07_CGAAAGT_GAGTTGGT_S43_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>01.06.20</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,10 +586,10 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -598,13 +598,13 @@
         <v>4178</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -616,7 +616,7 @@
         <v>13150378</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="9"/>
@@ -635,10 +635,10 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -647,13 +647,13 @@
         <v>4178</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>24.6</v>
@@ -665,17 +665,17 @@
         <v>8359577</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -684,13 +684,13 @@
         <v>4178</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>0.5</v>
@@ -702,17 +702,17 @@
         <v>23441414</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -721,13 +721,13 @@
         <v>4178</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>0.34300000000000003</v>
@@ -739,17 +739,17 @@
         <v>6056734</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -758,13 +758,13 @@
         <v>4178</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>0.92100000000000004</v>
@@ -776,17 +776,17 @@
         <v>7895676</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -795,13 +795,13 @@
         <v>4178</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7">
         <v>0.72299999999999998</v>
@@ -813,17 +813,17 @@
         <v>8460131</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -832,13 +832,13 @@
         <v>4178</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8">
         <v>0.38600000000000001</v>
@@ -850,17 +850,17 @@
         <v>1897678</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -869,13 +869,13 @@
         <v>4178</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9">
         <v>2.4</v>
@@ -887,17 +887,17 @@
         <v>9090073</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4">
         <v>15</v>
@@ -906,13 +906,13 @@
         <v>4178</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>0.501</v>
@@ -924,17 +924,17 @@
         <v>11115513</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4">
         <v>17</v>
@@ -943,13 +943,13 @@
         <v>4178</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <v>0.76300000000000001</v>
@@ -961,17 +961,17 @@
         <v>11299576</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -980,13 +980,13 @@
         <v>4178</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12">
         <v>0.60799999999999998</v>
@@ -998,17 +998,17 @@
         <v>8156030</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4">
         <v>27</v>
@@ -1017,13 +1017,13 @@
         <v>4178</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13">
         <v>0.20499999999999999</v>
@@ -1035,17 +1035,17 @@
         <v>390283</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>28</v>
@@ -1054,13 +1054,13 @@
         <v>4178</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14">
         <v>0.45700000000000002</v>
@@ -1072,7 +1072,7 @@
         <v>3295872</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="8"/>
@@ -1080,10 +1080,10 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4">
         <v>29</v>
@@ -1092,13 +1092,13 @@
         <v>4178</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15">
         <v>0.20799999999999999</v>
@@ -1110,17 +1110,17 @@
         <v>601878</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -1129,13 +1129,13 @@
         <v>4178</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16">
         <v>0.184</v>
@@ -1147,7 +1147,7 @@
         <v>494645</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="8"/>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4">
         <v>31</v>
@@ -1167,13 +1167,13 @@
         <v>4178</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17">
         <v>0.34799999999999998</v>
@@ -1185,7 +1185,7 @@
         <v>7357377</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="8"/>

--- a/fastqFiles/fastq_fullrun_hbrown_01.30.20.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_01.30.20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB94B949-4790-3E4A-BEC7-C1D10DEA98DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0765B23-19D0-3B4B-A32E-DA6913B21AAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33220" windowHeight="13920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="33">
   <si>
     <t>libraryDate</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>01.06.20</t>
+  </si>
+  <si>
+    <t>01.16.20</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1005,7 +1008,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -1042,7 +1045,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -1080,7 +1083,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>11</v>
@@ -1117,7 +1120,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>11</v>
@@ -1155,7 +1158,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>11</v>

--- a/fastqFiles/fastq_fullrun_hbrown_01.30.20.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_01.30.20.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0765B23-19D0-3B4B-A32E-DA6913B21AAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93BBC98-940C-AA41-B0FD-4C4BA555BFFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33220" windowHeight="13920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="2280" windowWidth="33220" windowHeight="13920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="59">
   <si>
     <t>libraryDate</t>
   </si>
@@ -120,17 +120,95 @@
     <t>Brent_JR310_GTAC_57_SIC_Index2_07_CGAAAGT_GAGTTGGT_S43_R1_001.fastq.gz</t>
   </si>
   <si>
-    <t>01.06.20</t>
-  </si>
-  <si>
     <t>01.16.20</t>
+  </si>
+  <si>
+    <t>Brent_5c1_GTAC_1_SIC_Index2_06_TGAGGTT_GACCTTGT_S2_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c2_GTAC_2_SIC_Index2_06_GCTTAGA_GACCTTGT_S3_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c3_GTAC_3_SIC_Index2_06_ATGACAG_GACCTTGT_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c4_GTAC_4_SIC_Index2_06_CACCTCC_GACCTTGT_S5_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c5_GTAC_5_SIC_Index2_06_ATCGAGC_GACCTTGT_S6_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c6_GTAC_6_SIC_Index2_06_TACTCTA_GACCTTGT_S7_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c7_GTAC_7_SIC_Index2_06_AGACTGA_GACCTTGT_S8_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c8_GTAC_8_SIC_Index2_06_CTTGGAA_GACCTTGT_S9_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c9_GTAC_9_SIC_Index2_06_CCGATTA_GACCTTGT_S10_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c10_GTAC_10_SIC_Index2_06_GGCAGCG_GACCTTGT_S11_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c11_GTAC_11_SIC_Index2_06_CCATCAT_GACCTTGT_S12_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c12_GTAC_12_SIC_Index2_06_TAACAAG_GACCTTGT_S13_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c13_GTAC_13_SIC_Index2_06_GAGGCGT_GACCTTGT_S14_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c14_GTAC_14_SIC_Index2_06_TTTAACT_GACCTTGT_S15_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c15_GTAC_15_SIC_Index2_06_GGTCCTC_GACCTTGT_S16_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c16_GTAC_16_SIC_Index2_06_CGGTGGC_GACCTTGT_S17_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c17_GTAC_17_SIC_Index2_06_ACTGTCG_GACCTTGT_S18_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c18_GTAC_18_SIC_Index2_06_GTATTTG_GACCTTGT_S19_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c19_GTAC_19_SIC_Index2_06_GAGTACG_GACCTTGT_S20_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c20_GTAC_20_SIC_Index2_06_ACAGATA_GACCTTGT_S21_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c21_GTAC_21_SIC_Index2_06_CTCAATG_GACCTTGT_S22_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c22_GTAC_22_SIC_Index2_06_AAATGCA_GACCTTGT_S23_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c23_GTAC_23_SIC_Index2_06_ACGCGGG_GACCTTGT_S24_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c24_GTAC_24_SIC_Index2_06_GGAGTCC_GACCTTGT_S25_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c25_GTAC_25_SIC_Index2_06_CGTCGCT_GACCTTGT_S26_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5c26_GTAC_26_SIC_Index2_06_TCAACTG_GACCTTGT_S27_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>01.10.20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -172,6 +250,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -211,6 +295,8 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,7 +1094,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -1045,7 +1131,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -1083,7 +1169,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>11</v>
@@ -1120,7 +1206,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>11</v>
@@ -1158,7 +1244,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -1192,6 +1278,916 @@
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>41.8</v>
+      </c>
+      <c r="I18">
+        <v>0.94373419367483169</v>
+      </c>
+      <c r="J18" s="12">
+        <v>11295855</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>16.8</v>
+      </c>
+      <c r="I19">
+        <v>0.7779716205845526</v>
+      </c>
+      <c r="J19" s="12">
+        <v>14320290</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>44</v>
+      </c>
+      <c r="I20">
+        <v>0.96642685388531446</v>
+      </c>
+      <c r="J20" s="12">
+        <v>14577668</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="I21">
+        <v>0.78249857027228897</v>
+      </c>
+      <c r="J21" s="12">
+        <v>12115310</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>69</v>
+      </c>
+      <c r="I22">
+        <v>0.91470253011960168</v>
+      </c>
+      <c r="J22" s="12">
+        <v>10841856</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <v>17</v>
+      </c>
+      <c r="I23">
+        <v>0.62897359186328961</v>
+      </c>
+      <c r="J23" s="12">
+        <v>12144022</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <v>15.2</v>
+      </c>
+      <c r="I24">
+        <v>0.72785343662340307</v>
+      </c>
+      <c r="J24" s="12">
+        <v>13264007</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>7.01</v>
+      </c>
+      <c r="I25">
+        <v>1.0525063655213405</v>
+      </c>
+      <c r="J25" s="12">
+        <v>13539175</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <v>22.9</v>
+      </c>
+      <c r="I26">
+        <v>0.92770260757448897</v>
+      </c>
+      <c r="J26" s="12">
+        <v>10781922</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>1.0524407774172397</v>
+      </c>
+      <c r="J27" s="12">
+        <v>14477043</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="I28">
+        <v>1.0318570686798922</v>
+      </c>
+      <c r="J28" s="12">
+        <v>12194237</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29">
+        <v>28.3</v>
+      </c>
+      <c r="I29">
+        <v>0.7494627292754179</v>
+      </c>
+      <c r="J29" s="12">
+        <v>11389794</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <v>23.7</v>
+      </c>
+      <c r="I30">
+        <v>0.76930462487595208</v>
+      </c>
+      <c r="J30" s="12">
+        <v>11789158</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31">
+        <v>15.6</v>
+      </c>
+      <c r="I31">
+        <v>0.71898770161116654</v>
+      </c>
+      <c r="J31" s="12">
+        <v>13067756</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32">
+        <v>46.1</v>
+      </c>
+      <c r="I32">
+        <v>1.1053538871745974</v>
+      </c>
+      <c r="J32" s="12">
+        <v>17567359</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>11.4</v>
+      </c>
+      <c r="I33">
+        <v>0.75947007783284914</v>
+      </c>
+      <c r="J33" s="12">
+        <v>11545177</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>17</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>25.8</v>
+      </c>
+      <c r="I34">
+        <v>0.91009457416184469</v>
+      </c>
+      <c r="J34" s="12">
+        <v>10728440</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>18</v>
+      </c>
+      <c r="D35" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35">
+        <v>23.2</v>
+      </c>
+      <c r="I35">
+        <v>0.93678915626590054</v>
+      </c>
+      <c r="J35" s="12">
+        <v>12148062</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>19</v>
+      </c>
+      <c r="D36" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36">
+        <v>25.4</v>
+      </c>
+      <c r="I36">
+        <v>0.95914509419362748</v>
+      </c>
+      <c r="J36" s="12">
+        <v>13880375</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37">
+        <v>23.3</v>
+      </c>
+      <c r="I37">
+        <v>0.88158612798169178</v>
+      </c>
+      <c r="J37" s="12">
+        <v>13227029</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="I38">
+        <v>30.293324138598532</v>
+      </c>
+      <c r="J38" s="12">
+        <v>5191510</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>22</v>
+      </c>
+      <c r="D39" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="I39">
+        <v>7.7849649914810541</v>
+      </c>
+      <c r="J39" s="12">
+        <v>13590254</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>23</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>13.52171964272214</v>
+      </c>
+      <c r="J40" s="12">
+        <v>11545393</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>2.9940869793970992</v>
+      </c>
+      <c r="J41" s="12">
+        <v>10242360</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>25</v>
+      </c>
+      <c r="D42" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42">
+        <v>11</v>
+      </c>
+      <c r="I42">
+        <v>0.54330620843577582</v>
+      </c>
+      <c r="J42" s="12">
+        <v>12923568</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>26</v>
+      </c>
+      <c r="D43" s="5">
+        <v>4178</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43">
+        <v>14.9</v>
+      </c>
+      <c r="I43">
+        <v>0.51730888025304267</v>
+      </c>
+      <c r="J43" s="12">
+        <v>15000389</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
